--- a/resources/HistoricalData/WageData_by_county.xlsx
+++ b/resources/HistoricalData/WageData_by_county.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ad6fc7c2d3fbbe0/Desktop/bootcamp/Project3/BC-Project3/resources/HistoricalData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indra\OneDrive\Desktop\bootcamp\ProjectBayArea\BC-Project3\resources\HistoricalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{468336AE-FF4A-4301-AC9B-CCF0664959EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{9DB35A96-37E7-488A-93A4-74A90A91639F}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{468336AE-FF4A-4301-AC9B-CCF0664959EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{DB58EEDF-B9CC-422C-ACDD-985917AEA294}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1CE89B23-C781-49C7-AB31-E468FF6EB36A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$253</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -507,10 +510,10 @@
   <dimension ref="A1:E253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A85" sqref="A85:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,513 +559,513 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>18462</v>
-      </c>
-      <c r="D3">
-        <v>297074</v>
-      </c>
-      <c r="E3">
-        <v>27299</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>35264</v>
+      </c>
+      <c r="D3" s="2">
+        <v>589348</v>
+      </c>
+      <c r="E3" s="2">
+        <v>29262</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>8706</v>
+        <v>37575</v>
       </c>
       <c r="D4">
-        <v>97553</v>
+        <v>580372</v>
       </c>
       <c r="E4">
-        <v>26119</v>
+        <v>30739</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3591</v>
+        <v>38998</v>
       </c>
       <c r="D5">
-        <v>45481</v>
+        <v>581604</v>
       </c>
       <c r="E5">
-        <v>21416</v>
+        <v>31202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>30081</v>
+        <v>38190</v>
       </c>
       <c r="D6">
-        <v>581626</v>
+        <v>582410</v>
       </c>
       <c r="E6">
-        <v>31272</v>
+        <v>32175</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>17125</v>
+        <v>41139</v>
       </c>
       <c r="D7">
-        <v>310320</v>
+        <v>604087</v>
       </c>
       <c r="E7">
-        <v>29827</v>
+        <v>33263</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>34806</v>
-      </c>
-      <c r="D8">
-        <v>855974</v>
-      </c>
-      <c r="E8">
-        <v>32353</v>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40636</v>
+      </c>
+      <c r="D8" s="2">
+        <v>620381</v>
+      </c>
+      <c r="E8" s="2">
+        <v>34505</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5620</v>
+        <v>39571</v>
       </c>
       <c r="D9">
-        <v>98877</v>
+        <v>631383</v>
       </c>
       <c r="E9">
-        <v>23581</v>
+        <v>37045</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>11939</v>
-      </c>
-      <c r="D10">
-        <v>147161</v>
-      </c>
-      <c r="E10">
-        <v>22317</v>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43683</v>
+      </c>
+      <c r="D10" s="2">
+        <v>651492</v>
+      </c>
+      <c r="E10" s="2">
+        <v>38809</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>35264</v>
+        <v>44947</v>
       </c>
       <c r="D11" s="2">
-        <v>589348</v>
+        <v>672416</v>
       </c>
       <c r="E11" s="2">
-        <v>29262</v>
+        <v>41098</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>21559</v>
-      </c>
-      <c r="D12" s="2">
-        <v>289264</v>
-      </c>
-      <c r="E12" s="2">
-        <v>28891</v>
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>43448</v>
+      </c>
+      <c r="D12">
+        <v>697215</v>
+      </c>
+      <c r="E12">
+        <v>45155</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9714</v>
-      </c>
-      <c r="D13" s="2">
-        <v>96971</v>
-      </c>
-      <c r="E13" s="2">
-        <v>27763</v>
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>44645</v>
+      </c>
+      <c r="D13">
+        <v>697181</v>
+      </c>
+      <c r="E13">
+        <v>46489</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>3929</v>
+        <v>46319</v>
       </c>
       <c r="D14" s="2">
-        <v>45447</v>
+        <v>681988</v>
       </c>
       <c r="E14" s="2">
-        <v>22207</v>
+        <v>47307</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2">
-        <v>33755</v>
-      </c>
-      <c r="D15" s="2">
-        <v>571191</v>
-      </c>
-      <c r="E15" s="2">
-        <v>33464</v>
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>47393</v>
+      </c>
+      <c r="D15">
+        <v>677990</v>
+      </c>
+      <c r="E15">
+        <v>48822</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2">
-        <v>19672</v>
-      </c>
-      <c r="D16" s="2">
-        <v>283160</v>
-      </c>
-      <c r="E16" s="2">
-        <v>30433</v>
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>47498</v>
+      </c>
+      <c r="D16">
+        <v>672203</v>
+      </c>
+      <c r="E16">
+        <v>51402</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2">
-        <v>39938</v>
-      </c>
-      <c r="D17" s="2">
-        <v>823193</v>
-      </c>
-      <c r="E17" s="2">
-        <v>34416</v>
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>47138</v>
+      </c>
+      <c r="D17">
+        <v>675480</v>
+      </c>
+      <c r="E17">
+        <v>53152</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>6758</v>
+        <v>49065</v>
       </c>
       <c r="D18" s="2">
-        <v>96970</v>
+        <v>683616</v>
       </c>
       <c r="E18" s="2">
-        <v>24309</v>
+        <v>55920</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>13539</v>
+        <v>49291</v>
       </c>
       <c r="D19" s="2">
-        <v>146822</v>
+        <v>686655</v>
       </c>
       <c r="E19" s="2">
-        <v>23419</v>
+        <v>58189</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>37575</v>
+        <v>52783</v>
       </c>
       <c r="D20">
-        <v>580372</v>
+        <v>683099</v>
       </c>
       <c r="E20">
-        <v>30739</v>
+        <v>58666</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>23509</v>
+        <v>53000</v>
       </c>
       <c r="D21">
-        <v>290580</v>
+        <v>640949</v>
       </c>
       <c r="E21">
-        <v>30769</v>
+        <v>58863</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>10182</v>
-      </c>
-      <c r="D22">
-        <v>95239</v>
-      </c>
-      <c r="E22">
-        <v>29109</v>
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>54132</v>
+      </c>
+      <c r="D22" s="2">
+        <v>630343</v>
+      </c>
+      <c r="E22" s="2">
+        <v>61175</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>4137</v>
+        <v>55990</v>
       </c>
       <c r="D23">
-        <v>45402</v>
+        <v>634983</v>
       </c>
       <c r="E23">
-        <v>23451</v>
+        <v>62269</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>35853</v>
+        <v>54225</v>
       </c>
       <c r="D24">
-        <v>536833</v>
+        <v>658708</v>
       </c>
       <c r="E24">
-        <v>35941</v>
+        <v>63658</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>20753</v>
+        <v>54891</v>
       </c>
       <c r="D25">
-        <v>292966</v>
+        <v>677978</v>
       </c>
       <c r="E25">
-        <v>33659</v>
+        <v>63533</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>41569</v>
+        <v>56780</v>
       </c>
       <c r="D26">
-        <v>801343</v>
+        <v>698536</v>
       </c>
       <c r="E26">
-        <v>37071</v>
+        <v>65733</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>7331</v>
+        <v>58771</v>
       </c>
       <c r="D27">
-        <v>98619</v>
+        <v>728995</v>
       </c>
       <c r="E27">
-        <v>25636</v>
+        <v>68791</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>14389</v>
+        <v>60608</v>
       </c>
       <c r="D28">
-        <v>146291</v>
+        <v>751599</v>
       </c>
       <c r="E28">
-        <v>24353</v>
+        <v>70563</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>38998</v>
+        <v>62580</v>
       </c>
       <c r="D29">
-        <v>581604</v>
+        <v>772071</v>
       </c>
       <c r="E29">
-        <v>31202</v>
+        <v>73895</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>24487</v>
+        <v>18462</v>
       </c>
       <c r="D30">
-        <v>289035</v>
+        <v>297074</v>
       </c>
       <c r="E30">
-        <v>31685</v>
+        <v>27299</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>10622</v>
-      </c>
-      <c r="D31">
-        <v>96137</v>
-      </c>
-      <c r="E31">
-        <v>29225</v>
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>21559</v>
+      </c>
+      <c r="D31" s="2">
+        <v>289264</v>
+      </c>
+      <c r="E31" s="2">
+        <v>28891</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>4192</v>
+        <v>23509</v>
       </c>
       <c r="D32">
-        <v>45122</v>
+        <v>290580</v>
       </c>
       <c r="E32">
-        <v>23863</v>
+        <v>30769</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1070,526 +1073,526 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>37013</v>
+        <v>24487</v>
       </c>
       <c r="D33">
-        <v>531539</v>
+        <v>289035</v>
       </c>
       <c r="E33">
-        <v>36970</v>
+        <v>31685</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>21452</v>
+        <v>23813</v>
       </c>
       <c r="D34">
-        <v>289875</v>
+        <v>289653</v>
       </c>
       <c r="E34">
-        <v>34749</v>
+        <v>32090</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>42923</v>
+        <v>25605</v>
       </c>
       <c r="D35">
-        <v>798033</v>
+        <v>292247</v>
       </c>
       <c r="E35">
-        <v>38131</v>
+        <v>33003</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>7605</v>
-      </c>
-      <c r="D36">
-        <v>98609</v>
-      </c>
-      <c r="E36">
-        <v>25918</v>
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>24776</v>
+      </c>
+      <c r="D36" s="2">
+        <v>296299</v>
+      </c>
+      <c r="E36" s="2">
+        <v>34338</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>14795</v>
+        <v>23672</v>
       </c>
       <c r="D37">
-        <v>149546</v>
+        <v>306701</v>
       </c>
       <c r="E37">
-        <v>24634</v>
+        <v>36192</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>38190</v>
-      </c>
-      <c r="D38">
-        <v>582410</v>
-      </c>
-      <c r="E38">
-        <v>32175</v>
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>25801</v>
+      </c>
+      <c r="D38" s="2">
+        <v>320009</v>
+      </c>
+      <c r="E38" s="2">
+        <v>38199</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C39">
-        <v>23813</v>
-      </c>
-      <c r="D39">
-        <v>289653</v>
-      </c>
-      <c r="E39">
-        <v>32090</v>
+      <c r="C39" s="2">
+        <v>26196</v>
+      </c>
+      <c r="D39" s="2">
+        <v>329072</v>
+      </c>
+      <c r="E39" s="2">
+        <v>40954</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>10617</v>
+        <v>25324</v>
       </c>
       <c r="D40">
-        <v>98233</v>
+        <v>337924</v>
       </c>
       <c r="E40">
-        <v>30126</v>
+        <v>42914</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>4090</v>
+        <v>25919</v>
       </c>
       <c r="D41">
-        <v>45332</v>
+        <v>337444</v>
       </c>
       <c r="E41">
-        <v>24516</v>
+        <v>44744</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>36473</v>
-      </c>
-      <c r="D42">
-        <v>525870</v>
-      </c>
-      <c r="E42">
-        <v>38319</v>
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>26968</v>
+      </c>
+      <c r="D42" s="2">
+        <v>340197</v>
+      </c>
+      <c r="E42" s="2">
+        <v>46015</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>21300</v>
+        <v>27324</v>
       </c>
       <c r="D43">
-        <v>293164</v>
+        <v>335201</v>
       </c>
       <c r="E43">
-        <v>35758</v>
+        <v>46660</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>43061</v>
+        <v>27373</v>
       </c>
       <c r="D44">
-        <v>811151</v>
+        <v>338349</v>
       </c>
       <c r="E44">
-        <v>39107</v>
+        <v>49643</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>7336</v>
+        <v>26956</v>
       </c>
       <c r="D45">
-        <v>104365</v>
+        <v>339738</v>
       </c>
       <c r="E45">
-        <v>26839</v>
+        <v>51515</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46">
-        <v>14483</v>
-      </c>
-      <c r="D46">
-        <v>150219</v>
-      </c>
-      <c r="E46">
-        <v>25156</v>
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>28002</v>
+      </c>
+      <c r="D46" s="2">
+        <v>345649</v>
+      </c>
+      <c r="E46" s="2">
+        <v>53149</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>41139</v>
-      </c>
-      <c r="D47">
-        <v>604087</v>
-      </c>
-      <c r="E47">
-        <v>33263</v>
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>27933</v>
+      </c>
+      <c r="D47" s="2">
+        <v>344954</v>
+      </c>
+      <c r="E47" s="2">
+        <v>55336</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48">
-        <v>25605</v>
+        <v>29450</v>
       </c>
       <c r="D48">
-        <v>292247</v>
+        <v>339547</v>
       </c>
       <c r="E48">
-        <v>33003</v>
+        <v>56306</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>11483</v>
+        <v>29430</v>
       </c>
       <c r="D49">
-        <v>100731</v>
+        <v>320798</v>
       </c>
       <c r="E49">
-        <v>31552</v>
+        <v>56199</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50">
-        <v>4363</v>
-      </c>
-      <c r="D50">
-        <v>46875</v>
-      </c>
-      <c r="E50">
-        <v>25500</v>
+      <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>29151</v>
+      </c>
+      <c r="D50" s="2">
+        <v>313615</v>
+      </c>
+      <c r="E50" s="2">
+        <v>57552</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>38878</v>
+        <v>29871</v>
       </c>
       <c r="D51">
-        <v>528833</v>
+        <v>315064</v>
       </c>
       <c r="E51">
-        <v>39708</v>
+        <v>59146</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>23078</v>
+        <v>28785</v>
       </c>
       <c r="D52">
-        <v>300725</v>
+        <v>323484</v>
       </c>
       <c r="E52">
-        <v>37176</v>
+        <v>60142</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>46295</v>
+        <v>28785</v>
       </c>
       <c r="D53">
-        <v>834956</v>
+        <v>332623</v>
       </c>
       <c r="E53">
-        <v>42892</v>
+        <v>60855</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>7939</v>
+        <v>29524</v>
       </c>
       <c r="D54">
-        <v>101726</v>
+        <v>339281</v>
       </c>
       <c r="E54">
-        <v>25784</v>
+        <v>61920</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>15527</v>
+        <v>30419</v>
       </c>
       <c r="D55">
-        <v>153880</v>
+        <v>346862</v>
       </c>
       <c r="E55">
-        <v>26212</v>
+        <v>63792</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="2">
-        <v>40636</v>
-      </c>
-      <c r="D56" s="2">
-        <v>620381</v>
-      </c>
-      <c r="E56" s="2">
-        <v>34505</v>
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>31198</v>
+      </c>
+      <c r="D56">
+        <v>359242</v>
+      </c>
+      <c r="E56">
+        <v>65187</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="2">
-        <v>24776</v>
-      </c>
-      <c r="D57" s="2">
-        <v>296299</v>
-      </c>
-      <c r="E57" s="2">
-        <v>34338</v>
+      <c r="C57">
+        <v>31919</v>
+      </c>
+      <c r="D57">
+        <v>366799</v>
+      </c>
+      <c r="E57">
+        <v>67207</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="2">
-        <v>11226</v>
-      </c>
-      <c r="D58" s="2">
-        <v>101916</v>
-      </c>
-      <c r="E58" s="2">
-        <v>33368</v>
+      <c r="C58">
+        <v>8706</v>
+      </c>
+      <c r="D58">
+        <v>97553</v>
+      </c>
+      <c r="E58">
+        <v>26119</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" s="2">
-        <v>4283</v>
+        <v>9714</v>
       </c>
       <c r="D59" s="2">
-        <v>49569</v>
+        <v>96971</v>
       </c>
       <c r="E59" s="2">
-        <v>26091</v>
+        <v>27763</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="2">
-        <v>38505</v>
-      </c>
-      <c r="D60" s="2">
-        <v>542721</v>
-      </c>
-      <c r="E60" s="2">
-        <v>41535</v>
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>10182</v>
+      </c>
+      <c r="D60">
+        <v>95239</v>
+      </c>
+      <c r="E60">
+        <v>29109</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="2">
-        <v>22708</v>
-      </c>
-      <c r="D61" s="2">
-        <v>316412</v>
-      </c>
-      <c r="E61" s="2">
-        <v>39584</v>
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>10622</v>
+      </c>
+      <c r="D61">
+        <v>96137</v>
+      </c>
+      <c r="E61">
+        <v>29225</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="2">
-        <v>46423</v>
-      </c>
-      <c r="D62" s="2">
-        <v>886560</v>
-      </c>
-      <c r="E62" s="2">
-        <v>44891</v>
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>10617</v>
+      </c>
+      <c r="D62">
+        <v>98233</v>
+      </c>
+      <c r="E62">
+        <v>30126</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="2">
-        <v>7801</v>
-      </c>
-      <c r="D63" s="2">
-        <v>101488</v>
-      </c>
-      <c r="E63" s="2">
-        <v>25749</v>
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>11483</v>
+      </c>
+      <c r="D63">
+        <v>100731</v>
+      </c>
+      <c r="E63">
+        <v>31552</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1597,16 +1600,16 @@
         <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C64" s="2">
-        <v>15153</v>
+        <v>11226</v>
       </c>
       <c r="D64" s="2">
-        <v>163065</v>
+        <v>101916</v>
       </c>
       <c r="E64" s="2">
-        <v>26924</v>
+        <v>33368</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1614,526 +1617,526 @@
         <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>39571</v>
+        <v>10706</v>
       </c>
       <c r="D65">
-        <v>631383</v>
+        <v>103781</v>
       </c>
       <c r="E65">
-        <v>37045</v>
+        <v>35228</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>23672</v>
-      </c>
-      <c r="D66">
-        <v>306701</v>
-      </c>
-      <c r="E66">
-        <v>36192</v>
+      <c r="A66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2">
+        <v>11626</v>
+      </c>
+      <c r="D66" s="2">
+        <v>106639</v>
+      </c>
+      <c r="E66" s="2">
+        <v>37703</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="A67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C67">
-        <v>10706</v>
-      </c>
-      <c r="D67">
-        <v>103781</v>
-      </c>
-      <c r="E67">
-        <v>35228</v>
+      <c r="C67" s="2">
+        <v>11897</v>
+      </c>
+      <c r="D67" s="2">
+        <v>110557</v>
+      </c>
+      <c r="E67" s="2">
+        <v>39257</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68">
-        <v>4143</v>
+        <v>11155</v>
       </c>
       <c r="D68">
-        <v>52782</v>
+        <v>112454</v>
       </c>
       <c r="E68">
-        <v>27179</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>37604</v>
+        <v>11185</v>
       </c>
       <c r="D69">
-        <v>554574</v>
+        <v>111939</v>
       </c>
       <c r="E69">
-        <v>44655</v>
+        <v>43547</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70">
-        <v>21920</v>
-      </c>
-      <c r="D70">
-        <v>330092</v>
-      </c>
-      <c r="E70">
-        <v>43151</v>
+      <c r="A70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2">
+        <v>11710</v>
+      </c>
+      <c r="D70" s="2">
+        <v>111854</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45269</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>45610</v>
+        <v>11698</v>
       </c>
       <c r="D71">
-        <v>928587</v>
+        <v>109696</v>
       </c>
       <c r="E71">
-        <v>48774</v>
+        <v>48051</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>7598</v>
+        <v>11699</v>
       </c>
       <c r="D72">
-        <v>103369</v>
+        <v>109601</v>
       </c>
       <c r="E72">
-        <v>27114</v>
+        <v>50539</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C73">
-        <v>14563</v>
+        <v>11432</v>
       </c>
       <c r="D73">
-        <v>171128</v>
+        <v>108903</v>
       </c>
       <c r="E73">
-        <v>28759</v>
+        <v>52678</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C74" s="2">
-        <v>43683</v>
+        <v>11673</v>
       </c>
       <c r="D74" s="2">
-        <v>651492</v>
+        <v>108984</v>
       </c>
       <c r="E74" s="2">
-        <v>38809</v>
+        <v>54697</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C75" s="2">
-        <v>25801</v>
+        <v>11429</v>
       </c>
       <c r="D75" s="2">
-        <v>320009</v>
+        <v>108655</v>
       </c>
       <c r="E75" s="2">
-        <v>38199</v>
+        <v>55725</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="A76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="2">
-        <v>11626</v>
-      </c>
-      <c r="D76" s="2">
-        <v>106639</v>
-      </c>
-      <c r="E76" s="2">
-        <v>37703</v>
+      <c r="C76">
+        <v>11843</v>
+      </c>
+      <c r="D76">
+        <v>109340</v>
+      </c>
+      <c r="E76">
+        <v>56106</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="2">
-        <v>4438</v>
-      </c>
-      <c r="D77" s="2">
-        <v>55907</v>
-      </c>
-      <c r="E77" s="2">
-        <v>28606</v>
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>11593</v>
+      </c>
+      <c r="D77">
+        <v>102632</v>
+      </c>
+      <c r="E77">
+        <v>55492</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" s="2">
-        <v>41211</v>
+        <v>11576</v>
       </c>
       <c r="D78" s="2">
-        <v>575340</v>
+        <v>102062</v>
       </c>
       <c r="E78" s="2">
-        <v>47641</v>
+        <v>56134</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="2">
-        <v>23976</v>
-      </c>
-      <c r="D79" s="2">
-        <v>345983</v>
-      </c>
-      <c r="E79" s="2">
-        <v>45413</v>
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>11680</v>
+      </c>
+      <c r="D79">
+        <v>102656</v>
+      </c>
+      <c r="E79">
+        <v>57948</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="2">
-        <v>50291</v>
-      </c>
-      <c r="D80" s="2">
-        <v>961613</v>
-      </c>
-      <c r="E80" s="2">
-        <v>51548</v>
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>11523</v>
+      </c>
+      <c r="D80">
+        <v>106021</v>
+      </c>
+      <c r="E80">
+        <v>58943</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="2">
-        <v>8340</v>
-      </c>
-      <c r="D81" s="2">
-        <v>107646</v>
-      </c>
-      <c r="E81" s="2">
-        <v>28143</v>
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>11601</v>
+      </c>
+      <c r="D81">
+        <v>108850</v>
+      </c>
+      <c r="E81">
+        <v>59427</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="2">
-        <v>15962</v>
-      </c>
-      <c r="D82" s="2">
-        <v>178799</v>
-      </c>
-      <c r="E82" s="2">
-        <v>30704</v>
+      <c r="A82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>11903</v>
+      </c>
+      <c r="D82">
+        <v>110424</v>
+      </c>
+      <c r="E82">
+        <v>61953</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="2">
-        <v>44947</v>
-      </c>
-      <c r="D83" s="2">
-        <v>672416</v>
-      </c>
-      <c r="E83" s="2">
-        <v>41098</v>
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>12105</v>
+      </c>
+      <c r="D83">
+        <v>112056</v>
+      </c>
+      <c r="E83">
+        <v>64906</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="2">
-        <v>26196</v>
-      </c>
-      <c r="D84" s="2">
-        <v>329072</v>
-      </c>
-      <c r="E84" s="2">
-        <v>40954</v>
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>12286</v>
+      </c>
+      <c r="D84">
+        <v>114063</v>
+      </c>
+      <c r="E84">
+        <v>67211</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="2">
-        <v>11897</v>
-      </c>
-      <c r="D85" s="2">
-        <v>110557</v>
-      </c>
-      <c r="E85" s="2">
-        <v>39257</v>
+      <c r="C85">
+        <v>12368</v>
+      </c>
+      <c r="D85">
+        <v>115421</v>
+      </c>
+      <c r="E85">
+        <v>68210</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="2">
-        <v>4580</v>
-      </c>
-      <c r="D86" s="2">
-        <v>58881</v>
-      </c>
-      <c r="E86" s="2">
-        <v>30616</v>
+      <c r="C86">
+        <v>3591</v>
+      </c>
+      <c r="D86">
+        <v>45481</v>
+      </c>
+      <c r="E86">
+        <v>21416</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" s="2">
-        <v>42465</v>
+        <v>3929</v>
       </c>
       <c r="D87" s="2">
-        <v>591192</v>
+        <v>45447</v>
       </c>
       <c r="E87" s="2">
-        <v>51580</v>
+        <v>22207</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="2">
-        <v>24406</v>
-      </c>
-      <c r="D88" s="2">
-        <v>358442</v>
-      </c>
-      <c r="E88" s="2">
-        <v>51585</v>
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>4137</v>
+      </c>
+      <c r="D88">
+        <v>45402</v>
+      </c>
+      <c r="E88">
+        <v>23451</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="2">
-        <v>51547</v>
-      </c>
-      <c r="D89" s="2">
-        <v>974007</v>
-      </c>
-      <c r="E89" s="2">
-        <v>61136</v>
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>4192</v>
+      </c>
+      <c r="D89">
+        <v>45122</v>
+      </c>
+      <c r="E89">
+        <v>23863</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="2">
-        <v>8423</v>
-      </c>
-      <c r="D90" s="2">
-        <v>112234</v>
-      </c>
-      <c r="E90" s="2">
-        <v>29243</v>
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>4090</v>
+      </c>
+      <c r="D90">
+        <v>45332</v>
+      </c>
+      <c r="E90">
+        <v>24516</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="2">
-        <v>16303</v>
-      </c>
-      <c r="D91" s="2">
-        <v>184595</v>
-      </c>
-      <c r="E91" s="2">
-        <v>32144</v>
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>4363</v>
+      </c>
+      <c r="D91">
+        <v>46875</v>
+      </c>
+      <c r="E91">
+        <v>25500</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>43448</v>
-      </c>
-      <c r="D92">
-        <v>697215</v>
-      </c>
-      <c r="E92">
-        <v>45155</v>
+      <c r="A92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="2">
+        <v>4283</v>
+      </c>
+      <c r="D92" s="2">
+        <v>49569</v>
+      </c>
+      <c r="E92" s="2">
+        <v>26091</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>25324</v>
+        <v>4143</v>
       </c>
       <c r="D93">
-        <v>337924</v>
+        <v>52782</v>
       </c>
       <c r="E93">
-        <v>42914</v>
+        <v>27179</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94">
-        <v>11155</v>
-      </c>
-      <c r="D94">
-        <v>112454</v>
-      </c>
-      <c r="E94">
-        <v>42867</v>
+      <c r="A94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="2">
+        <v>4438</v>
+      </c>
+      <c r="D94" s="2">
+        <v>55907</v>
+      </c>
+      <c r="E94" s="2">
+        <v>28606</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C95">
-        <v>4349</v>
-      </c>
-      <c r="D95">
-        <v>60552</v>
-      </c>
-      <c r="E95">
-        <v>33104</v>
+      <c r="C95" s="2">
+        <v>4580</v>
+      </c>
+      <c r="D95" s="2">
+        <v>58881</v>
+      </c>
+      <c r="E95" s="2">
+        <v>30616</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2141,526 +2144,526 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>41002</v>
+        <v>4349</v>
       </c>
       <c r="D96">
-        <v>611676</v>
+        <v>60552</v>
       </c>
       <c r="E96">
-        <v>57723</v>
+        <v>33104</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>23023</v>
+        <v>4474</v>
       </c>
       <c r="D97">
-        <v>380137</v>
+        <v>63332</v>
       </c>
       <c r="E97">
-        <v>67084</v>
+        <v>34684</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98">
-        <v>48740</v>
-      </c>
-      <c r="D98">
-        <v>1036582</v>
-      </c>
-      <c r="E98">
-        <v>76354</v>
+      <c r="A98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="2">
+        <v>4597</v>
+      </c>
+      <c r="D98" s="2">
+        <v>64099</v>
+      </c>
+      <c r="E98" s="2">
+        <v>35579</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>8024</v>
+        <v>4712</v>
       </c>
       <c r="D99">
-        <v>117281</v>
+        <v>64205</v>
       </c>
       <c r="E99">
-        <v>31587</v>
+        <v>36915</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>15404</v>
+        <v>4738</v>
       </c>
       <c r="D100">
-        <v>191453</v>
+        <v>64357</v>
       </c>
       <c r="E100">
-        <v>35803</v>
+        <v>39026</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>44645</v>
+        <v>4766</v>
       </c>
       <c r="D101">
-        <v>697181</v>
+        <v>65201</v>
       </c>
       <c r="E101">
-        <v>46489</v>
+        <v>40180</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102">
-        <v>25919</v>
-      </c>
-      <c r="D102">
-        <v>337444</v>
-      </c>
-      <c r="E102">
-        <v>44744</v>
+      <c r="A102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="2">
+        <v>4939</v>
+      </c>
+      <c r="D102" s="2">
+        <v>66029</v>
+      </c>
+      <c r="E102" s="2">
+        <v>41788</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>22</v>
-      </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103">
-        <v>11185</v>
-      </c>
-      <c r="D103">
-        <v>111939</v>
-      </c>
-      <c r="E103">
-        <v>43547</v>
+      <c r="A103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="2">
+        <v>4950</v>
+      </c>
+      <c r="D103" s="2">
+        <v>67961</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44171</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104">
-        <v>4474</v>
+        <v>5115</v>
       </c>
       <c r="D104">
-        <v>63332</v>
+        <v>68850</v>
       </c>
       <c r="E104">
-        <v>34684</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>42032</v>
+        <v>5139</v>
       </c>
       <c r="D105">
-        <v>586085</v>
+        <v>65012</v>
       </c>
       <c r="E105">
-        <v>61068</v>
+        <v>45174</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>22</v>
-      </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106">
-        <v>22892</v>
-      </c>
-      <c r="D106">
-        <v>369868</v>
-      </c>
-      <c r="E106">
-        <v>62288</v>
+      <c r="A106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="2">
+        <v>5136</v>
+      </c>
+      <c r="D106" s="2">
+        <v>64073</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45250</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C107">
-        <v>48894</v>
+        <v>5241</v>
       </c>
       <c r="D107">
-        <v>1002637</v>
+        <v>65086</v>
       </c>
       <c r="E107">
-        <v>65931</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>8205</v>
+        <v>5218</v>
       </c>
       <c r="D108">
-        <v>121402</v>
+        <v>67461</v>
       </c>
       <c r="E108">
-        <v>33496</v>
+        <v>46575</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C109">
-        <v>15721</v>
+        <v>5311</v>
       </c>
       <c r="D109">
-        <v>194922</v>
+        <v>70178</v>
       </c>
       <c r="E109">
-        <v>36145</v>
+        <v>47089</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="2">
-        <v>46319</v>
-      </c>
-      <c r="D110" s="2">
-        <v>681988</v>
-      </c>
-      <c r="E110" s="2">
-        <v>47307</v>
+      <c r="A110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>5465</v>
+      </c>
+      <c r="D110">
+        <v>72568</v>
+      </c>
+      <c r="E110">
+        <v>48189</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="2">
-        <v>26968</v>
-      </c>
-      <c r="D111" s="2">
-        <v>340197</v>
-      </c>
-      <c r="E111" s="2">
-        <v>46015</v>
+      <c r="A111" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>5618</v>
+      </c>
+      <c r="D111">
+        <v>75037</v>
+      </c>
+      <c r="E111">
+        <v>50650</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="2">
-        <v>11710</v>
-      </c>
-      <c r="D112" s="2">
-        <v>111854</v>
-      </c>
-      <c r="E112" s="2">
-        <v>45269</v>
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>5719</v>
+      </c>
+      <c r="D112">
+        <v>75503</v>
+      </c>
+      <c r="E112">
+        <v>52173</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="A113" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="2">
-        <v>4597</v>
-      </c>
-      <c r="D113" s="2">
-        <v>64099</v>
-      </c>
-      <c r="E113" s="2">
-        <v>35579</v>
+      <c r="C113">
+        <v>5810</v>
+      </c>
+      <c r="D113">
+        <v>76765</v>
+      </c>
+      <c r="E113">
+        <v>53918</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="2">
-        <v>42685</v>
-      </c>
-      <c r="D114" s="2">
-        <v>547304</v>
-      </c>
-      <c r="E114" s="2">
-        <v>58510</v>
+      <c r="C114">
+        <v>30081</v>
+      </c>
+      <c r="D114">
+        <v>581626</v>
+      </c>
+      <c r="E114">
+        <v>31272</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" s="2">
-        <v>23003</v>
+        <v>33755</v>
       </c>
       <c r="D115" s="2">
-        <v>345137</v>
+        <v>571191</v>
       </c>
       <c r="E115" s="2">
-        <v>57250</v>
+        <v>33464</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="2">
-        <v>49615</v>
-      </c>
-      <c r="D116" s="2">
-        <v>905489</v>
-      </c>
-      <c r="E116" s="2">
-        <v>63056</v>
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>35853</v>
+      </c>
+      <c r="D116">
+        <v>536833</v>
+      </c>
+      <c r="E116">
+        <v>35941</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" s="2">
-        <v>8544</v>
-      </c>
-      <c r="D117" s="2">
-        <v>123484</v>
-      </c>
-      <c r="E117" s="2">
-        <v>34005</v>
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>37013</v>
+      </c>
+      <c r="D117">
+        <v>531539</v>
+      </c>
+      <c r="E117">
+        <v>36970</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="2">
-        <v>16451</v>
-      </c>
-      <c r="D118" s="2">
-        <v>192994</v>
-      </c>
-      <c r="E118" s="2">
-        <v>36494</v>
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>36473</v>
+      </c>
+      <c r="D118">
+        <v>525870</v>
+      </c>
+      <c r="E118">
+        <v>38319</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>47393</v>
+        <v>38878</v>
       </c>
       <c r="D119">
-        <v>677990</v>
+        <v>528833</v>
       </c>
       <c r="E119">
-        <v>48822</v>
+        <v>39708</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>24</v>
-      </c>
-      <c r="B120" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120">
-        <v>27324</v>
-      </c>
-      <c r="D120">
-        <v>335201</v>
-      </c>
-      <c r="E120">
-        <v>46660</v>
+      <c r="A120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="2">
+        <v>38505</v>
+      </c>
+      <c r="D120" s="2">
+        <v>542721</v>
+      </c>
+      <c r="E120" s="2">
+        <v>41535</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121">
-        <v>11698</v>
+        <v>37604</v>
       </c>
       <c r="D121">
-        <v>109696</v>
+        <v>554574</v>
       </c>
       <c r="E121">
-        <v>48051</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>24</v>
-      </c>
-      <c r="B122" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122">
-        <v>4712</v>
-      </c>
-      <c r="D122">
-        <v>64205</v>
-      </c>
-      <c r="E122">
-        <v>36915</v>
+      <c r="A122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="2">
+        <v>41211</v>
+      </c>
+      <c r="D122" s="2">
+        <v>575340</v>
+      </c>
+      <c r="E122" s="2">
+        <v>47641</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>24</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="A123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C123">
-        <v>43162</v>
-      </c>
-      <c r="D123">
-        <v>532908</v>
-      </c>
-      <c r="E123">
-        <v>58836</v>
+      <c r="C123" s="2">
+        <v>42465</v>
+      </c>
+      <c r="D123" s="2">
+        <v>591192</v>
+      </c>
+      <c r="E123" s="2">
+        <v>51580</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124">
-        <v>22721</v>
+        <v>41002</v>
       </c>
       <c r="D124">
-        <v>327080</v>
+        <v>611676</v>
       </c>
       <c r="E124">
-        <v>59615</v>
+        <v>57723</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C125">
-        <v>50748</v>
+        <v>42032</v>
       </c>
       <c r="D125">
-        <v>852513</v>
+        <v>586085</v>
       </c>
       <c r="E125">
-        <v>65791</v>
+        <v>61068</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>24</v>
-      </c>
-      <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126">
-        <v>9109</v>
-      </c>
-      <c r="D126">
-        <v>126133</v>
-      </c>
-      <c r="E126">
-        <v>35168</v>
+      <c r="A126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="2">
+        <v>42685</v>
+      </c>
+      <c r="D126" s="2">
+        <v>547304</v>
+      </c>
+      <c r="E126" s="2">
+        <v>58510</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -2668,16 +2671,16 @@
         <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C127">
-        <v>16806</v>
+        <v>43162</v>
       </c>
       <c r="D127">
-        <v>187399</v>
+        <v>532908</v>
       </c>
       <c r="E127">
-        <v>37218</v>
+        <v>58836</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,526 +2688,526 @@
         <v>25</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C128">
-        <v>47498</v>
+        <v>42914</v>
       </c>
       <c r="D128">
-        <v>672203</v>
+        <v>520434</v>
       </c>
       <c r="E128">
-        <v>51402</v>
+        <v>62370</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C129">
-        <v>27373</v>
+        <v>42560</v>
       </c>
       <c r="D129">
-        <v>338349</v>
+        <v>524940</v>
       </c>
       <c r="E129">
-        <v>49643</v>
+        <v>66590</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>25</v>
-      </c>
-      <c r="B130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130">
-        <v>11699</v>
-      </c>
-      <c r="D130">
-        <v>109601</v>
-      </c>
-      <c r="E130">
-        <v>50539</v>
+      <c r="A130" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44133</v>
+      </c>
+      <c r="D130" s="2">
+        <v>536304</v>
+      </c>
+      <c r="E130" s="2">
+        <v>70729</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>25</v>
-      </c>
-      <c r="B131" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131">
-        <v>4738</v>
-      </c>
-      <c r="D131">
-        <v>64357</v>
-      </c>
-      <c r="E131">
-        <v>39026</v>
+      <c r="A131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D131" s="2">
+        <v>556401</v>
+      </c>
+      <c r="E131" s="2">
+        <v>75125</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132">
-        <v>42914</v>
+        <v>50270</v>
       </c>
       <c r="D132">
-        <v>520434</v>
+        <v>573011</v>
       </c>
       <c r="E132">
-        <v>62370</v>
+        <v>75513</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133">
-        <v>22669</v>
+        <v>51517</v>
       </c>
       <c r="D133">
-        <v>327152</v>
+        <v>549716</v>
       </c>
       <c r="E133">
-        <v>62472</v>
+        <v>73599</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>25</v>
-      </c>
-      <c r="B134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134">
-        <v>51782</v>
-      </c>
-      <c r="D134">
-        <v>845040</v>
-      </c>
-      <c r="E134">
-        <v>70334</v>
+      <c r="A134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="2">
+        <v>52846</v>
+      </c>
+      <c r="D134" s="2">
+        <v>545721</v>
+      </c>
+      <c r="E134" s="2">
+        <v>76361</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C135">
-        <v>9412</v>
+        <v>55143</v>
       </c>
       <c r="D135">
-        <v>126294</v>
+        <v>558990</v>
       </c>
       <c r="E135">
-        <v>37118</v>
+        <v>80675</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C136">
-        <v>17067</v>
+        <v>54099</v>
       </c>
       <c r="D136">
-        <v>188506</v>
+        <v>586538</v>
       </c>
       <c r="E136">
-        <v>38512</v>
+        <v>83452</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C137">
-        <v>47138</v>
+        <v>55042</v>
       </c>
       <c r="D137">
-        <v>675480</v>
+        <v>611717</v>
       </c>
       <c r="E137">
-        <v>53152</v>
+        <v>85788</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>26956</v>
+        <v>57020</v>
       </c>
       <c r="D138">
-        <v>339738</v>
+        <v>640378</v>
       </c>
       <c r="E138">
-        <v>51515</v>
+        <v>91877</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139">
-        <v>11432</v>
+        <v>58423</v>
       </c>
       <c r="D139">
-        <v>108903</v>
+        <v>674646</v>
       </c>
       <c r="E139">
-        <v>52678</v>
+        <v>97067</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140">
-        <v>4766</v>
+        <v>59263</v>
       </c>
       <c r="D140">
-        <v>65201</v>
+        <v>703188</v>
       </c>
       <c r="E140">
-        <v>40180</v>
+        <v>101656</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141">
-        <v>42560</v>
+        <v>59993</v>
       </c>
       <c r="D141">
-        <v>524940</v>
+        <v>716999</v>
       </c>
       <c r="E141">
-        <v>66590</v>
+        <v>109066</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
       <c r="C142">
-        <v>22217</v>
+        <v>17125</v>
       </c>
       <c r="D142">
-        <v>326536</v>
+        <v>310320</v>
       </c>
       <c r="E142">
-        <v>66573</v>
+        <v>29827</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>26</v>
-      </c>
-      <c r="B143" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143">
-        <v>52209</v>
-      </c>
-      <c r="D143">
-        <v>854927</v>
-      </c>
-      <c r="E143">
-        <v>72693</v>
+      <c r="A143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="2">
+        <v>19672</v>
+      </c>
+      <c r="D143" s="2">
+        <v>283160</v>
+      </c>
+      <c r="E143" s="2">
+        <v>30433</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>9461</v>
+        <v>20753</v>
       </c>
       <c r="D144">
-        <v>129185</v>
+        <v>292966</v>
       </c>
       <c r="E144">
-        <v>38431</v>
+        <v>33659</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>17028</v>
+        <v>21452</v>
       </c>
       <c r="D145">
-        <v>189073</v>
+        <v>289875</v>
       </c>
       <c r="E145">
-        <v>40017</v>
+        <v>34749</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="2">
-        <v>49065</v>
-      </c>
-      <c r="D146" s="2">
-        <v>683616</v>
-      </c>
-      <c r="E146" s="2">
-        <v>55920</v>
+      <c r="A146" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>21300</v>
+      </c>
+      <c r="D146">
+        <v>293164</v>
+      </c>
+      <c r="E146">
+        <v>35758</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="2">
-        <v>28002</v>
-      </c>
-      <c r="D147" s="2">
-        <v>345649</v>
-      </c>
-      <c r="E147" s="2">
-        <v>53149</v>
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>23078</v>
+      </c>
+      <c r="D147">
+        <v>300725</v>
+      </c>
+      <c r="E147">
+        <v>37176</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" s="2">
-        <v>11673</v>
+        <v>22708</v>
       </c>
       <c r="D148" s="2">
-        <v>108984</v>
+        <v>316412</v>
       </c>
       <c r="E148" s="2">
-        <v>54697</v>
+        <v>39584</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="2">
-        <v>4939</v>
-      </c>
-      <c r="D149" s="2">
-        <v>66029</v>
-      </c>
-      <c r="E149" s="2">
-        <v>41788</v>
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>21920</v>
+      </c>
+      <c r="D149">
+        <v>330092</v>
+      </c>
+      <c r="E149">
+        <v>43151</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" s="2">
-        <v>44133</v>
+        <v>23976</v>
       </c>
       <c r="D150" s="2">
-        <v>536304</v>
+        <v>345983</v>
       </c>
       <c r="E150" s="2">
-        <v>70729</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="2">
-        <v>23045</v>
+        <v>24406</v>
       </c>
       <c r="D151" s="2">
-        <v>334910</v>
+        <v>358442</v>
       </c>
       <c r="E151" s="2">
-        <v>67999</v>
+        <v>51585</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C152" s="2">
-        <v>55343</v>
-      </c>
-      <c r="D152" s="2">
-        <v>877710</v>
-      </c>
-      <c r="E152" s="2">
-        <v>77374</v>
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152">
+        <v>23023</v>
+      </c>
+      <c r="D152">
+        <v>380137</v>
+      </c>
+      <c r="E152">
+        <v>67084</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" s="2">
-        <v>9870</v>
-      </c>
-      <c r="D153" s="2">
-        <v>130804</v>
-      </c>
-      <c r="E153" s="2">
-        <v>40225</v>
+      <c r="A153" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>22892</v>
+      </c>
+      <c r="D153">
+        <v>369868</v>
+      </c>
+      <c r="E153">
+        <v>62288</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C154" s="2">
-        <v>17692</v>
+        <v>23003</v>
       </c>
       <c r="D154" s="2">
-        <v>191555</v>
+        <v>345137</v>
       </c>
       <c r="E154" s="2">
-        <v>41533</v>
+        <v>57250</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" s="2">
-        <v>49291</v>
-      </c>
-      <c r="D155" s="2">
-        <v>686655</v>
-      </c>
-      <c r="E155" s="2">
-        <v>58189</v>
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155">
+        <v>22721</v>
+      </c>
+      <c r="D155">
+        <v>327080</v>
+      </c>
+      <c r="E155">
+        <v>59615</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="2">
-        <v>27933</v>
-      </c>
-      <c r="D156" s="2">
-        <v>344954</v>
-      </c>
-      <c r="E156" s="2">
-        <v>55336</v>
+      <c r="A156" t="s">
+        <v>25</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156">
+        <v>22669</v>
+      </c>
+      <c r="D156">
+        <v>327152</v>
+      </c>
+      <c r="E156">
+        <v>62472</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" s="2">
-        <v>11429</v>
-      </c>
-      <c r="D157" s="2">
-        <v>108655</v>
-      </c>
-      <c r="E157" s="2">
-        <v>55725</v>
+      <c r="A157" t="s">
+        <v>26</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <v>22217</v>
+      </c>
+      <c r="D157">
+        <v>326536</v>
+      </c>
+      <c r="E157">
+        <v>66573</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" s="2">
-        <v>4950</v>
+        <v>23045</v>
       </c>
       <c r="D158" s="2">
-        <v>67961</v>
+        <v>334910</v>
       </c>
       <c r="E158" s="2">
-        <v>44171</v>
+        <v>67999</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3212,526 +3215,526 @@
         <v>28</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" s="2">
-        <v>44369</v>
+        <v>22849</v>
       </c>
       <c r="D159" s="2">
-        <v>556401</v>
+        <v>340640</v>
       </c>
       <c r="E159" s="2">
-        <v>75125</v>
+        <v>72300</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="A160" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="2">
-        <v>22849</v>
-      </c>
-      <c r="D160" s="2">
-        <v>340640</v>
-      </c>
-      <c r="E160" s="2">
-        <v>72300</v>
+      <c r="C160">
+        <v>23815</v>
+      </c>
+      <c r="D160">
+        <v>342361</v>
+      </c>
+      <c r="E160">
+        <v>72106</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C161" s="2">
-        <v>56305</v>
-      </c>
-      <c r="D161" s="2">
-        <v>896685</v>
-      </c>
-      <c r="E161" s="2">
-        <v>82901</v>
+      <c r="A161" t="s">
+        <v>30</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>23623</v>
+      </c>
+      <c r="D161">
+        <v>323195</v>
+      </c>
+      <c r="E161">
+        <v>76502</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C162" s="2">
-        <v>9726</v>
+        <v>23586</v>
       </c>
       <c r="D162" s="2">
-        <v>128081</v>
+        <v>317576</v>
       </c>
       <c r="E162" s="2">
-        <v>42932</v>
+        <v>74254</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="2">
-        <v>17766</v>
-      </c>
-      <c r="D163" s="2">
-        <v>193598</v>
-      </c>
-      <c r="E163" s="2">
-        <v>42824</v>
+      <c r="A163" t="s">
+        <v>32</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>24240</v>
+      </c>
+      <c r="D163">
+        <v>326055</v>
+      </c>
+      <c r="E163">
+        <v>76248</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C164">
-        <v>52783</v>
+        <v>24242</v>
       </c>
       <c r="D164">
-        <v>683099</v>
+        <v>340075</v>
       </c>
       <c r="E164">
-        <v>58666</v>
+        <v>103243</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C165">
-        <v>29450</v>
+        <v>24601</v>
       </c>
       <c r="D165">
-        <v>339547</v>
+        <v>356563</v>
       </c>
       <c r="E165">
-        <v>56306</v>
+        <v>103431</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>11843</v>
+        <v>25670</v>
       </c>
       <c r="D166">
-        <v>109340</v>
+        <v>372192</v>
       </c>
       <c r="E166">
-        <v>56106</v>
+        <v>101480</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167">
-        <v>5115</v>
+        <v>26654</v>
       </c>
       <c r="D167">
-        <v>68850</v>
+        <v>383668</v>
       </c>
       <c r="E167">
-        <v>45061</v>
+        <v>102776</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>50270</v>
+        <v>27224</v>
       </c>
       <c r="D168">
-        <v>573011</v>
+        <v>391640</v>
       </c>
       <c r="E168">
-        <v>75513</v>
+        <v>107469</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
       </c>
       <c r="C169">
-        <v>23815</v>
+        <v>27889</v>
       </c>
       <c r="D169">
-        <v>342361</v>
+        <v>400560</v>
       </c>
       <c r="E169">
-        <v>72106</v>
+        <v>116190</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B170" t="s">
         <v>9</v>
       </c>
       <c r="C170">
-        <v>59587</v>
+        <v>34806</v>
       </c>
       <c r="D170">
-        <v>906502</v>
+        <v>855974</v>
       </c>
       <c r="E170">
-        <v>80802</v>
+        <v>32353</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>29</v>
-      </c>
-      <c r="B171" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171">
-        <v>9979</v>
-      </c>
-      <c r="D171">
-        <v>126324</v>
-      </c>
-      <c r="E171">
-        <v>45264</v>
+      <c r="A171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="2">
+        <v>39938</v>
+      </c>
+      <c r="D171" s="2">
+        <v>823193</v>
+      </c>
+      <c r="E171" s="2">
+        <v>34416</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C172">
-        <v>18547</v>
+        <v>41569</v>
       </c>
       <c r="D172">
-        <v>190574</v>
+        <v>801343</v>
       </c>
       <c r="E172">
-        <v>43757</v>
+        <v>37071</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C173">
-        <v>53000</v>
+        <v>42923</v>
       </c>
       <c r="D173">
-        <v>640949</v>
+        <v>798033</v>
       </c>
       <c r="E173">
-        <v>58863</v>
+        <v>38131</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C174">
-        <v>29430</v>
+        <v>43061</v>
       </c>
       <c r="D174">
-        <v>320798</v>
+        <v>811151</v>
       </c>
       <c r="E174">
-        <v>56199</v>
+        <v>39107</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C175">
-        <v>11593</v>
+        <v>46295</v>
       </c>
       <c r="D175">
-        <v>102632</v>
+        <v>834956</v>
       </c>
       <c r="E175">
-        <v>55492</v>
+        <v>42892</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>30</v>
-      </c>
-      <c r="B176" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176">
-        <v>5139</v>
-      </c>
-      <c r="D176">
-        <v>65012</v>
-      </c>
-      <c r="E176">
-        <v>45174</v>
+      <c r="A176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="2">
+        <v>46423</v>
+      </c>
+      <c r="D176" s="2">
+        <v>886560</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44891</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C177">
-        <v>51517</v>
+        <v>45610</v>
       </c>
       <c r="D177">
-        <v>549716</v>
+        <v>928587</v>
       </c>
       <c r="E177">
-        <v>73599</v>
+        <v>48774</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>30</v>
-      </c>
-      <c r="B178" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178">
-        <v>23623</v>
-      </c>
-      <c r="D178">
-        <v>323195</v>
-      </c>
-      <c r="E178">
-        <v>76502</v>
+      <c r="A178" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="2">
+        <v>50291</v>
+      </c>
+      <c r="D178" s="2">
+        <v>961613</v>
+      </c>
+      <c r="E178" s="2">
+        <v>51548</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>30</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="A179" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C179">
-        <v>60035</v>
-      </c>
-      <c r="D179">
-        <v>848938</v>
-      </c>
-      <c r="E179">
-        <v>80326</v>
+      <c r="C179" s="2">
+        <v>51547</v>
+      </c>
+      <c r="D179" s="2">
+        <v>974007</v>
+      </c>
+      <c r="E179" s="2">
+        <v>61136</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C180">
-        <v>9935</v>
+        <v>48740</v>
       </c>
       <c r="D180">
-        <v>121581</v>
+        <v>1036582</v>
       </c>
       <c r="E180">
-        <v>47287</v>
+        <v>76354</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C181">
-        <v>18460</v>
+        <v>48894</v>
       </c>
       <c r="D181">
-        <v>176992</v>
+        <v>1002637</v>
       </c>
       <c r="E181">
-        <v>43274</v>
+        <v>65931</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C182" s="2">
-        <v>54132</v>
+        <v>49615</v>
       </c>
       <c r="D182" s="2">
-        <v>630343</v>
+        <v>905489</v>
       </c>
       <c r="E182" s="2">
-        <v>61175</v>
+        <v>63056</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" s="2">
-        <v>29151</v>
-      </c>
-      <c r="D183" s="2">
-        <v>313615</v>
-      </c>
-      <c r="E183" s="2">
-        <v>57552</v>
+      <c r="A183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183">
+        <v>50748</v>
+      </c>
+      <c r="D183">
+        <v>852513</v>
+      </c>
+      <c r="E183">
+        <v>65791</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" s="2">
-        <v>11576</v>
-      </c>
-      <c r="D184" s="2">
-        <v>102062</v>
-      </c>
-      <c r="E184" s="2">
-        <v>56134</v>
+      <c r="A184" t="s">
+        <v>25</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184">
+        <v>51782</v>
+      </c>
+      <c r="D184">
+        <v>845040</v>
+      </c>
+      <c r="E184">
+        <v>70334</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="2">
-        <v>5136</v>
-      </c>
-      <c r="D185" s="2">
-        <v>64073</v>
-      </c>
-      <c r="E185" s="2">
-        <v>45250</v>
+      <c r="A185" t="s">
+        <v>26</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185">
+        <v>52209</v>
+      </c>
+      <c r="D185">
+        <v>854927</v>
+      </c>
+      <c r="E185">
+        <v>72693</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C186" s="2">
-        <v>52846</v>
+        <v>55343</v>
       </c>
       <c r="D186" s="2">
-        <v>545721</v>
+        <v>877710</v>
       </c>
       <c r="E186" s="2">
-        <v>76361</v>
+        <v>77374</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" s="2">
-        <v>23586</v>
+        <v>56305</v>
       </c>
       <c r="D187" s="2">
-        <v>317576</v>
+        <v>896685</v>
       </c>
       <c r="E187" s="2">
-        <v>74254</v>
+        <v>82901</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B188" s="1" t="s">
+      <c r="A188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B188" t="s">
         <v>9</v>
       </c>
-      <c r="C188" s="2">
-        <v>60389</v>
-      </c>
-      <c r="D188" s="2">
-        <v>842581</v>
-      </c>
-      <c r="E188" s="2">
-        <v>89401</v>
+      <c r="C188">
+        <v>59587</v>
+      </c>
+      <c r="D188">
+        <v>906502</v>
+      </c>
+      <c r="E188">
+        <v>80802</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189" s="2">
-        <v>9920</v>
-      </c>
-      <c r="D189" s="2">
-        <v>122105</v>
-      </c>
-      <c r="E189" s="2">
-        <v>46273</v>
+      <c r="A189" t="s">
+        <v>30</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189">
+        <v>60035</v>
+      </c>
+      <c r="D189">
+        <v>848938</v>
+      </c>
+      <c r="E189">
+        <v>80326</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -3739,16 +3742,16 @@
         <v>31</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C190" s="2">
-        <v>18424</v>
+        <v>60389</v>
       </c>
       <c r="D190" s="2">
-        <v>175508</v>
+        <v>842581</v>
       </c>
       <c r="E190" s="2">
-        <v>44192</v>
+        <v>89401</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -3756,526 +3759,526 @@
         <v>32</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C191">
-        <v>55990</v>
+        <v>62561</v>
       </c>
       <c r="D191">
-        <v>634983</v>
+        <v>866541</v>
       </c>
       <c r="E191">
-        <v>62269</v>
+        <v>94825</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B192" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C192">
-        <v>29871</v>
+        <v>61953</v>
       </c>
       <c r="D192">
-        <v>315064</v>
+        <v>903053</v>
       </c>
       <c r="E192">
-        <v>59146</v>
+        <v>95921</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C193">
-        <v>11680</v>
+        <v>62755</v>
       </c>
       <c r="D193">
-        <v>102656</v>
+        <v>938114</v>
       </c>
       <c r="E193">
-        <v>57948</v>
+        <v>98576</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C194">
-        <v>5241</v>
+        <v>65277</v>
       </c>
       <c r="D194">
-        <v>65086</v>
+        <v>973668</v>
       </c>
       <c r="E194">
-        <v>45926</v>
+        <v>105382</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C195">
-        <v>55143</v>
+        <v>67491</v>
       </c>
       <c r="D195">
-        <v>558990</v>
+        <v>1017071</v>
       </c>
       <c r="E195">
-        <v>80675</v>
+        <v>113390</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196">
-        <v>24240</v>
+        <v>69708</v>
       </c>
       <c r="D196">
-        <v>326055</v>
+        <v>1046049</v>
       </c>
       <c r="E196">
-        <v>76248</v>
+        <v>118048</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B197" t="s">
         <v>9</v>
       </c>
       <c r="C197">
-        <v>62561</v>
+        <v>71761</v>
       </c>
       <c r="D197">
-        <v>866541</v>
+        <v>1071733</v>
       </c>
       <c r="E197">
-        <v>94825</v>
+        <v>126775</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
       </c>
       <c r="C198">
-        <v>10066</v>
+        <v>5620</v>
       </c>
       <c r="D198">
-        <v>119442</v>
+        <v>98877</v>
       </c>
       <c r="E198">
-        <v>47657</v>
+        <v>23581</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>32</v>
-      </c>
-      <c r="B199" t="s">
-        <v>11</v>
-      </c>
-      <c r="C199">
-        <v>18886</v>
-      </c>
-      <c r="D199">
-        <v>177157</v>
-      </c>
-      <c r="E199">
-        <v>45233</v>
+      <c r="A199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="2">
+        <v>6758</v>
+      </c>
+      <c r="D199" s="2">
+        <v>96970</v>
+      </c>
+      <c r="E199" s="2">
+        <v>24309</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C200">
-        <v>54225</v>
+        <v>7331</v>
       </c>
       <c r="D200">
-        <v>658708</v>
+        <v>98619</v>
       </c>
       <c r="E200">
-        <v>63658</v>
+        <v>25636</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B201" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C201">
-        <v>28785</v>
+        <v>7605</v>
       </c>
       <c r="D201">
-        <v>323484</v>
+        <v>98609</v>
       </c>
       <c r="E201">
-        <v>60142</v>
+        <v>25918</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C202">
-        <v>11523</v>
+        <v>7336</v>
       </c>
       <c r="D202">
-        <v>106021</v>
+        <v>104365</v>
       </c>
       <c r="E202">
-        <v>58943</v>
+        <v>26839</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C203">
-        <v>5218</v>
+        <v>7939</v>
       </c>
       <c r="D203">
-        <v>67461</v>
+        <v>101726</v>
       </c>
       <c r="E203">
-        <v>46575</v>
+        <v>25784</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>33</v>
-      </c>
-      <c r="B204" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204">
-        <v>54099</v>
-      </c>
-      <c r="D204">
-        <v>586538</v>
-      </c>
-      <c r="E204">
-        <v>83452</v>
+      <c r="A204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="2">
+        <v>7801</v>
+      </c>
+      <c r="D204" s="2">
+        <v>101488</v>
+      </c>
+      <c r="E204" s="2">
+        <v>25749</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C205">
-        <v>24242</v>
+        <v>7598</v>
       </c>
       <c r="D205">
-        <v>340075</v>
+        <v>103369</v>
       </c>
       <c r="E205">
-        <v>103243</v>
+        <v>27114</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>33</v>
-      </c>
-      <c r="B206" t="s">
-        <v>9</v>
-      </c>
-      <c r="C206">
-        <v>61953</v>
-      </c>
-      <c r="D206">
-        <v>903053</v>
-      </c>
-      <c r="E206">
-        <v>95921</v>
+      <c r="A206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="2">
+        <v>8340</v>
+      </c>
+      <c r="D206" s="2">
+        <v>107646</v>
+      </c>
+      <c r="E206" s="2">
+        <v>28143</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>33</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="A207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C207">
-        <v>9617</v>
-      </c>
-      <c r="D207">
-        <v>121461</v>
-      </c>
-      <c r="E207">
-        <v>49237</v>
+      <c r="C207" s="2">
+        <v>8423</v>
+      </c>
+      <c r="D207" s="2">
+        <v>112234</v>
+      </c>
+      <c r="E207" s="2">
+        <v>29243</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C208">
-        <v>18206</v>
+        <v>8024</v>
       </c>
       <c r="D208">
-        <v>177222</v>
+        <v>117281</v>
       </c>
       <c r="E208">
-        <v>45086</v>
+        <v>31587</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B209" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C209">
-        <v>54891</v>
+        <v>8205</v>
       </c>
       <c r="D209">
-        <v>677978</v>
+        <v>121402</v>
       </c>
       <c r="E209">
-        <v>63533</v>
+        <v>33496</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>34</v>
-      </c>
-      <c r="B210" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210">
-        <v>28785</v>
-      </c>
-      <c r="D210">
-        <v>332623</v>
-      </c>
-      <c r="E210">
-        <v>60855</v>
+      <c r="A210" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" s="2">
+        <v>8544</v>
+      </c>
+      <c r="D210" s="2">
+        <v>123484</v>
+      </c>
+      <c r="E210" s="2">
+        <v>34005</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C211">
-        <v>11601</v>
+        <v>9109</v>
       </c>
       <c r="D211">
-        <v>108850</v>
+        <v>126133</v>
       </c>
       <c r="E211">
-        <v>59427</v>
+        <v>35168</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C212">
-        <v>5311</v>
+        <v>9412</v>
       </c>
       <c r="D212">
-        <v>70178</v>
+        <v>126294</v>
       </c>
       <c r="E212">
-        <v>47089</v>
+        <v>37118</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C213">
-        <v>55042</v>
+        <v>9461</v>
       </c>
       <c r="D213">
-        <v>611717</v>
+        <v>129185</v>
       </c>
       <c r="E213">
-        <v>85788</v>
+        <v>38431</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>34</v>
-      </c>
-      <c r="B214" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214">
-        <v>24601</v>
-      </c>
-      <c r="D214">
-        <v>356563</v>
-      </c>
-      <c r="E214">
-        <v>103431</v>
+      <c r="A214" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="2">
+        <v>9870</v>
+      </c>
+      <c r="D214" s="2">
+        <v>130804</v>
+      </c>
+      <c r="E214" s="2">
+        <v>40225</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>34</v>
-      </c>
-      <c r="B215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C215">
-        <v>62755</v>
-      </c>
-      <c r="D215">
-        <v>938114</v>
-      </c>
-      <c r="E215">
-        <v>98576</v>
+      <c r="A215" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="2">
+        <v>9726</v>
+      </c>
+      <c r="D215" s="2">
+        <v>128081</v>
+      </c>
+      <c r="E215" s="2">
+        <v>42932</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B216" t="s">
         <v>10</v>
       </c>
       <c r="C216">
-        <v>9779</v>
+        <v>9979</v>
       </c>
       <c r="D216">
-        <v>124953</v>
+        <v>126324</v>
       </c>
       <c r="E216">
-        <v>50453</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C217">
-        <v>18319</v>
+        <v>9935</v>
       </c>
       <c r="D217">
-        <v>184245</v>
+        <v>121581</v>
       </c>
       <c r="E217">
-        <v>45416</v>
+        <v>47287</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>35</v>
-      </c>
-      <c r="B218" t="s">
-        <v>3</v>
-      </c>
-      <c r="C218">
-        <v>56780</v>
-      </c>
-      <c r="D218">
-        <v>698536</v>
-      </c>
-      <c r="E218">
-        <v>65733</v>
+      <c r="A218" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="2">
+        <v>9920</v>
+      </c>
+      <c r="D218" s="2">
+        <v>122105</v>
+      </c>
+      <c r="E218" s="2">
+        <v>46273</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C219">
-        <v>29524</v>
+        <v>10066</v>
       </c>
       <c r="D219">
-        <v>339281</v>
+        <v>119442</v>
       </c>
       <c r="E219">
-        <v>61920</v>
+        <v>47657</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C220">
-        <v>11903</v>
+        <v>9617</v>
       </c>
       <c r="D220">
-        <v>110424</v>
+        <v>121461</v>
       </c>
       <c r="E220">
-        <v>61953</v>
+        <v>49237</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C221">
-        <v>5465</v>
+        <v>9779</v>
       </c>
       <c r="D221">
-        <v>72568</v>
+        <v>124953</v>
       </c>
       <c r="E221">
-        <v>48189</v>
+        <v>50453</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4283,526 +4286,526 @@
         <v>35</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C222">
-        <v>57020</v>
+        <v>10191</v>
       </c>
       <c r="D222">
-        <v>640378</v>
+        <v>127175</v>
       </c>
       <c r="E222">
-        <v>91877</v>
+        <v>51795</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C223">
-        <v>25670</v>
+        <v>10466</v>
       </c>
       <c r="D223">
-        <v>372192</v>
+        <v>130980</v>
       </c>
       <c r="E223">
-        <v>101480</v>
+        <v>53453</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C224">
-        <v>65277</v>
+        <v>10868</v>
       </c>
       <c r="D224">
-        <v>973668</v>
+        <v>135792</v>
       </c>
       <c r="E224">
-        <v>105382</v>
+        <v>54695</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B225" t="s">
         <v>10</v>
       </c>
       <c r="C225">
-        <v>10191</v>
+        <v>11291</v>
       </c>
       <c r="D225">
-        <v>127175</v>
+        <v>138088</v>
       </c>
       <c r="E225">
-        <v>51795</v>
+        <v>56587</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
       </c>
       <c r="C226">
-        <v>18796</v>
+        <v>11939</v>
       </c>
       <c r="D226">
-        <v>191686</v>
+        <v>147161</v>
       </c>
       <c r="E226">
-        <v>46428</v>
+        <v>22317</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>36</v>
-      </c>
-      <c r="B227" t="s">
-        <v>3</v>
-      </c>
-      <c r="C227">
-        <v>58771</v>
-      </c>
-      <c r="D227">
-        <v>728995</v>
-      </c>
-      <c r="E227">
-        <v>68791</v>
+      <c r="A227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="2">
+        <v>13539</v>
+      </c>
+      <c r="D227" s="2">
+        <v>146822</v>
+      </c>
+      <c r="E227" s="2">
+        <v>23419</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C228">
-        <v>30419</v>
+        <v>14389</v>
       </c>
       <c r="D228">
-        <v>346862</v>
+        <v>146291</v>
       </c>
       <c r="E228">
-        <v>63792</v>
+        <v>24353</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C229">
-        <v>12105</v>
+        <v>14795</v>
       </c>
       <c r="D229">
-        <v>112056</v>
+        <v>149546</v>
       </c>
       <c r="E229">
-        <v>64906</v>
+        <v>24634</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C230">
-        <v>5618</v>
+        <v>14483</v>
       </c>
       <c r="D230">
-        <v>75037</v>
+        <v>150219</v>
       </c>
       <c r="E230">
-        <v>50650</v>
+        <v>25156</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C231">
-        <v>58423</v>
+        <v>15527</v>
       </c>
       <c r="D231">
-        <v>674646</v>
+        <v>153880</v>
       </c>
       <c r="E231">
-        <v>97067</v>
+        <v>26212</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>36</v>
-      </c>
-      <c r="B232" t="s">
-        <v>8</v>
-      </c>
-      <c r="C232">
-        <v>26654</v>
-      </c>
-      <c r="D232">
-        <v>383668</v>
-      </c>
-      <c r="E232">
-        <v>102776</v>
+      <c r="A232" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" s="2">
+        <v>15153</v>
+      </c>
+      <c r="D232" s="2">
+        <v>163065</v>
+      </c>
+      <c r="E232" s="2">
+        <v>26924</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C233">
-        <v>67491</v>
+        <v>14563</v>
       </c>
       <c r="D233">
-        <v>1017071</v>
+        <v>171128</v>
       </c>
       <c r="E233">
-        <v>113390</v>
+        <v>28759</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>36</v>
-      </c>
-      <c r="B234" t="s">
-        <v>10</v>
-      </c>
-      <c r="C234">
-        <v>10466</v>
-      </c>
-      <c r="D234">
-        <v>130980</v>
-      </c>
-      <c r="E234">
-        <v>53453</v>
+      <c r="A234" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" s="2">
+        <v>15962</v>
+      </c>
+      <c r="D234" s="2">
+        <v>178799</v>
+      </c>
+      <c r="E234" s="2">
+        <v>30704</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>36</v>
-      </c>
-      <c r="B235" t="s">
+      <c r="A235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C235">
-        <v>19060</v>
-      </c>
-      <c r="D235">
-        <v>197218</v>
-      </c>
-      <c r="E235">
-        <v>49398</v>
+      <c r="C235" s="2">
+        <v>16303</v>
+      </c>
+      <c r="D235" s="2">
+        <v>184595</v>
+      </c>
+      <c r="E235" s="2">
+        <v>32144</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C236">
-        <v>60608</v>
+        <v>15404</v>
       </c>
       <c r="D236">
-        <v>751599</v>
+        <v>191453</v>
       </c>
       <c r="E236">
-        <v>70563</v>
+        <v>35803</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B237" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C237">
-        <v>31198</v>
+        <v>15721</v>
       </c>
       <c r="D237">
-        <v>359242</v>
+        <v>194922</v>
       </c>
       <c r="E237">
-        <v>65187</v>
+        <v>36145</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>37</v>
-      </c>
-      <c r="B238" t="s">
-        <v>5</v>
-      </c>
-      <c r="C238">
-        <v>12286</v>
-      </c>
-      <c r="D238">
-        <v>114063</v>
-      </c>
-      <c r="E238">
-        <v>67211</v>
+      <c r="A238" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" s="2">
+        <v>16451</v>
+      </c>
+      <c r="D238" s="2">
+        <v>192994</v>
+      </c>
+      <c r="E238" s="2">
+        <v>36494</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C239">
-        <v>5719</v>
+        <v>16806</v>
       </c>
       <c r="D239">
-        <v>75503</v>
+        <v>187399</v>
       </c>
       <c r="E239">
-        <v>52173</v>
+        <v>37218</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C240">
-        <v>59263</v>
+        <v>17067</v>
       </c>
       <c r="D240">
-        <v>703188</v>
+        <v>188506</v>
       </c>
       <c r="E240">
-        <v>101656</v>
+        <v>38512</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C241">
-        <v>27224</v>
+        <v>17028</v>
       </c>
       <c r="D241">
-        <v>391640</v>
+        <v>189073</v>
       </c>
       <c r="E241">
-        <v>107469</v>
+        <v>40017</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>37</v>
-      </c>
-      <c r="B242" t="s">
-        <v>9</v>
-      </c>
-      <c r="C242">
-        <v>69708</v>
-      </c>
-      <c r="D242">
-        <v>1046049</v>
-      </c>
-      <c r="E242">
-        <v>118048</v>
+      <c r="A242" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" s="2">
+        <v>17692</v>
+      </c>
+      <c r="D242" s="2">
+        <v>191555</v>
+      </c>
+      <c r="E242" s="2">
+        <v>41533</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>37</v>
-      </c>
-      <c r="B243" t="s">
-        <v>10</v>
-      </c>
-      <c r="C243">
-        <v>10868</v>
-      </c>
-      <c r="D243">
-        <v>135792</v>
-      </c>
-      <c r="E243">
-        <v>54695</v>
+      <c r="A243" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C243" s="2">
+        <v>17766</v>
+      </c>
+      <c r="D243" s="2">
+        <v>193598</v>
+      </c>
+      <c r="E243" s="2">
+        <v>42824</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
       </c>
       <c r="C244">
-        <v>19449</v>
+        <v>18547</v>
       </c>
       <c r="D244">
-        <v>201875</v>
+        <v>190574</v>
       </c>
       <c r="E244">
-        <v>50297</v>
+        <v>43757</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C245">
-        <v>62580</v>
+        <v>18460</v>
       </c>
       <c r="D245">
-        <v>772071</v>
+        <v>176992</v>
       </c>
       <c r="E245">
-        <v>73895</v>
+        <v>43274</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>38</v>
-      </c>
-      <c r="B246" t="s">
-        <v>4</v>
-      </c>
-      <c r="C246">
-        <v>31919</v>
-      </c>
-      <c r="D246">
-        <v>366799</v>
-      </c>
-      <c r="E246">
-        <v>67207</v>
+      <c r="A246" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246" s="2">
+        <v>18424</v>
+      </c>
+      <c r="D246" s="2">
+        <v>175508</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44192</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C247">
-        <v>12368</v>
+        <v>18886</v>
       </c>
       <c r="D247">
-        <v>115421</v>
+        <v>177157</v>
       </c>
       <c r="E247">
-        <v>68210</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C248">
-        <v>5810</v>
+        <v>18206</v>
       </c>
       <c r="D248">
-        <v>76765</v>
+        <v>177222</v>
       </c>
       <c r="E248">
-        <v>53918</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C249">
-        <v>59993</v>
+        <v>18319</v>
       </c>
       <c r="D249">
-        <v>716999</v>
+        <v>184245</v>
       </c>
       <c r="E249">
-        <v>109066</v>
+        <v>45416</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C250">
-        <v>27889</v>
+        <v>18796</v>
       </c>
       <c r="D250">
-        <v>400560</v>
+        <v>191686</v>
       </c>
       <c r="E250">
-        <v>116190</v>
+        <v>46428</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C251">
-        <v>71761</v>
+        <v>19060</v>
       </c>
       <c r="D251">
-        <v>1071733</v>
+        <v>197218</v>
       </c>
       <c r="E251">
-        <v>126775</v>
+        <v>49398</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C252">
-        <v>11291</v>
+        <v>19449</v>
       </c>
       <c r="D252">
-        <v>138088</v>
+        <v>201875</v>
       </c>
       <c r="E252">
-        <v>56587</v>
+        <v>50297</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -4823,6 +4826,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E253" xr:uid="{E285F7BF-3675-460C-83B1-2B4ED57B5AEA}">
+    <sortState ref="A2:E253">
+      <sortCondition ref="B1:B253"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>